--- a/OnBoarding Travel form-.xlsx
+++ b/OnBoarding Travel form-.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e2b299b3eb7bfa1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayuchav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{06124DDE-EE20-4172-B971-B919C8864F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEB1A95-C57F-4BE4-82DA-7A08FFE21B78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A70300-279D-48B0-89BA-3632E9A9EB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>New Joiners - On Boarding Travel and Relocation  Form</t>
   </si>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>TA's Remark:</t>
+  </si>
+  <si>
+    <t>202,Wing A,MadhuMalti Apartment</t>
+  </si>
+  <si>
+    <t>Shubhash Nagar,Belwali,Badlapur West,421503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cab </t>
+  </si>
+  <si>
+    <t>Badlpaur (Mumbai)</t>
+  </si>
+  <si>
+    <t>Kharadi (Pune)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>Support Engineer</t>
+  </si>
+  <si>
+    <t>Deepak Yadav</t>
+  </si>
+  <si>
+    <t>Michelin India</t>
+  </si>
+  <si>
+    <t>Yes(Only Vehicle required , TVS Jupiter scooty)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -388,6 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,25 +759,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6CD411-5737-4326-B4D9-4DDDB020E86A}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.90625" customWidth="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="51.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -759,7 +796,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
@@ -769,7 +808,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
@@ -779,7 +820,9 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
@@ -798,7 +841,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
@@ -808,7 +853,9 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
@@ -828,7 +875,9 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>45523</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
@@ -838,8 +887,12 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="5">
@@ -848,7 +901,9 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>9405210295</v>
+      </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
@@ -858,17 +913,19 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
@@ -910,7 +967,9 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>45523</v>
+      </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
@@ -920,7 +979,9 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
@@ -930,7 +991,9 @@
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
@@ -940,7 +1003,9 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
@@ -950,7 +1015,9 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12">
+        <v>45522</v>
+      </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1">
@@ -960,17 +1027,21 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1">
+    <row r="24" spans="1:4" ht="52.5" customHeight="1">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1">
@@ -1008,14 +1079,16 @@
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="18">
+        <v>45511</v>
+      </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="47.4" customHeight="1" thickBot="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="15"/>
       <c r="D28" s="11"/>
     </row>
